--- a/horarios_optimizados-897-push_gap_0.80.xlsx
+++ b/horarios_optimizados-897-push_gap_0.80.xlsx
@@ -652,65 +652,41 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr"/>
       <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -746,14 +722,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X6" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y6" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -881,33 +857,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" s="4" t="inlineStr"/>
+      <c r="O8" s="4" t="inlineStr"/>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -928,24 +896,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T8" s="6" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X8" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="U8" s="6" t="inlineStr">
+      <c r="Y8" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="V8" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr"/>
-      <c r="Y8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -953,52 +933,24 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr"/>
+      <c r="H9" s="4" t="inlineStr"/>
+      <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1009,50 +961,62 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr"/>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1158,16 +1122,8 @@
       <c r="B11" s="4" t="inlineStr"/>
       <c r="C11" s="4" t="inlineStr"/>
       <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1178,8 +1134,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" s="5" t="inlineStr">
         <is>
@@ -1360,7 +1324,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K15" s="4" t="inlineStr"/>
       <c r="L15" s="5" t="inlineStr">
         <is>
@@ -1377,29 +1345,29 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="O15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="T15" s="6" t="inlineStr">
@@ -1427,103 +1395,27 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
+      <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
       <c r="K16" s="4" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S16" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U16" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V16" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L16" s="4" t="inlineStr"/>
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
       <c r="W16" s="4" t="inlineStr"/>
       <c r="X16" s="4" t="inlineStr"/>
       <c r="Y16" s="4" t="inlineStr"/>
@@ -1534,82 +1426,98 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
-      <c r="K17" s="4" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="4" t="inlineStr"/>
       <c r="P17" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W17" s="4" t="inlineStr"/>
+      <c r="X17" s="4" t="inlineStr"/>
+      <c r="Y17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1622,25 +1530,97 @@
       <c r="D18" s="4" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="4" t="inlineStr"/>
-      <c r="P18" s="4" t="inlineStr"/>
-      <c r="Q18" s="4" t="inlineStr"/>
-      <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr"/>
-      <c r="V18" s="4" t="inlineStr"/>
-      <c r="W18" s="4" t="inlineStr"/>
-      <c r="X18" s="4" t="inlineStr"/>
-      <c r="Y18" s="4" t="inlineStr"/>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1648,12 +1628,36 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr"/>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1710,36 +1714,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U19" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr"/>
+      <c r="X19" s="4" t="inlineStr"/>
+      <c r="Y19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1747,11 +1735,31 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1772,15 +1780,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1801,36 +1821,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1859,22 +1855,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
       <c r="K21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1900,8 +1888,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R21" s="4" t="inlineStr"/>
       <c r="S21" s="4" t="inlineStr"/>
       <c r="T21" s="4" t="inlineStr"/>
@@ -2011,11 +2007,7 @@
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J25" s="4" t="inlineStr"/>
       <c r="K25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2041,7 +2033,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P25" s="4" t="inlineStr"/>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2062,11 +2058,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U25" s="4" t="inlineStr"/>
       <c r="V25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2094,30 +2086,110 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L26" s="4" t="inlineStr"/>
       <c r="M26" s="4" t="inlineStr"/>
       <c r="N26" s="4" t="inlineStr"/>
       <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
-      <c r="Y26" s="4" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X26" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y26" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2194,19 +2266,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S27" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U27" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
       <c r="V27" s="6" t="inlineStr">
@@ -2259,75 +2331,71 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
       <c r="K28" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X28" s="6" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P28" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="Y28" s="6" t="inlineStr">
+      <c r="Q28" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="R28" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S28" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U28" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V28" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W28" s="4" t="inlineStr"/>
+      <c r="X28" s="4" t="inlineStr"/>
+      <c r="Y28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -2335,24 +2403,52 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K29" s="4" t="inlineStr"/>
       <c r="L29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2368,57 +2464,49 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P29" s="4" t="inlineStr"/>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W29" s="4" t="inlineStr"/>
+      <c r="X29" s="4" t="inlineStr"/>
+      <c r="Y29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2497,23 +2585,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q30" s="6" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S30" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="R30" s="6" t="inlineStr">
+      <c r="T30" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="S30" s="6" t="inlineStr">
+      <c r="U30" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr"/>
       <c r="V30" s="4" t="inlineStr"/>
       <c r="W30" s="4" t="inlineStr"/>
       <c r="X30" s="4" t="inlineStr"/>
@@ -2526,75 +2622,23 @@
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
+      <c r="K31" s="4" t="inlineStr"/>
       <c r="L31" s="4" t="inlineStr"/>
       <c r="M31" s="4" t="inlineStr"/>
       <c r="N31" s="4" t="inlineStr"/>
       <c r="O31" s="4" t="inlineStr"/>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P31" s="4" t="inlineStr"/>
+      <c r="Q31" s="4" t="inlineStr"/>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr"/>
       <c r="T31" s="4" t="inlineStr"/>
       <c r="U31" s="4" t="inlineStr"/>
       <c r="V31" s="4" t="inlineStr"/>
@@ -2805,24 +2849,52 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr"/>
-      <c r="C36" s="4" t="inlineStr"/>
-      <c r="D36" s="4" t="inlineStr"/>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="inlineStr"/>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K36" s="4" t="inlineStr"/>
       <c r="L36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2843,52 +2915,44 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P36" s="4" t="inlineStr"/>
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="R36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R36" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S36" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U36" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V36" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W36" s="4" t="inlineStr"/>
+      <c r="X36" s="4" t="inlineStr"/>
+      <c r="Y36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2896,98 +2960,82 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L37" s="4" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr"/>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="inlineStr"/>
+      <c r="D37" s="4" t="inlineStr"/>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="inlineStr"/>
+      <c r="H37" s="4" t="inlineStr"/>
+      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr"/>
+      <c r="K37" s="4" t="inlineStr"/>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P37" s="4" t="inlineStr"/>
       <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="R37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W37" s="4" t="inlineStr"/>
-      <c r="X37" s="4" t="inlineStr"/>
-      <c r="Y37" s="4" t="inlineStr"/>
+      <c r="R37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -3000,97 +3048,25 @@
       <c r="D38" s="4" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr"/>
       <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr"/>
+      <c r="J38" s="4" t="inlineStr"/>
       <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L38" s="4" t="inlineStr"/>
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" s="4" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr"/>
+      <c r="P38" s="4" t="inlineStr"/>
+      <c r="Q38" s="4" t="inlineStr"/>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr"/>
+      <c r="T38" s="4" t="inlineStr"/>
+      <c r="U38" s="4" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr"/>
+      <c r="W38" s="4" t="inlineStr"/>
+      <c r="X38" s="4" t="inlineStr"/>
+      <c r="Y38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -3098,36 +3074,12 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3167,29 +3119,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W39" s="4" t="inlineStr"/>
-      <c r="X39" s="4" t="inlineStr"/>
-      <c r="Y39" s="4" t="inlineStr"/>
+      <c r="S39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3197,31 +3161,11 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B40" s="4" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3242,61 +3186,65 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V40" s="4" t="inlineStr"/>
-      <c r="W40" s="4" t="inlineStr"/>
-      <c r="X40" s="4" t="inlineStr"/>
-      <c r="Y40" s="4" t="inlineStr"/>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr"/>
+      <c r="P40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3305,23 +3253,75 @@
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr"/>
-      <c r="C41" s="4" t="inlineStr"/>
-      <c r="D41" s="4" t="inlineStr"/>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr"/>
-      <c r="K41" s="4" t="inlineStr"/>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L41" s="4" t="inlineStr"/>
       <c r="M41" s="4" t="inlineStr"/>
       <c r="N41" s="4" t="inlineStr"/>
       <c r="O41" s="4" t="inlineStr"/>
-      <c r="P41" s="4" t="inlineStr"/>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
+      <c r="P41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T41" s="4" t="inlineStr"/>
       <c r="U41" s="4" t="inlineStr"/>
       <c r="V41" s="4" t="inlineStr"/>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3481,10 +3481,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -3553,24 +3553,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3591,26 +3591,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="I6" t="n">
         <v>0.5</v>
@@ -3677,12 +3677,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3699,7 +3699,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3763,29 +3763,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3806,29 +3794,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3849,17 +3837,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I13" t="n">
         <v>0.5</v>
@@ -3923,29 +3923,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -3971,24 +3971,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
         <v>0.5</v>
@@ -4052,17 +4052,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4131,24 +4143,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4169,26 +4181,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
         <v>0.5</v>
@@ -4227,11 +4239,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I21" t="n">
         <v>0.5</v>
@@ -4255,29 +4267,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4341,26 +4341,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
         <v>0.5</v>
@@ -4384,29 +4384,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -4427,29 +4427,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4470,7 +4458,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4485,11 +4473,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -4513,29 +4501,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4556,17 +4544,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
